--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11835.95543596827</v>
+        <v>2355355.131757685</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11835.95543596827</v>
+        <v>2355355.131757685</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28493.16754634944</v>
+        <v>1712853.92996007</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28493.16754634944</v>
+        <v>1712853.92996007</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113248885.054093</v>
+        <v>45659903.54780666</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11023.45439329746</v>
+        <v>1166847.627974186</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20566.7036602285</v>
+        <v>2079895.982215317</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30109.95292715952</v>
+        <v>2992944.336456449</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40665.6112138165</v>
+        <v>3851135.492821253</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51221.26950047107</v>
+        <v>4709326.649186155</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60871.74079486237</v>
+        <v>5622375.003427285</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70522.21208925366</v>
+        <v>6535423.357668412</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80172.68338364497</v>
+        <v>7448471.71190954</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90512.68784657905</v>
+        <v>8291126.976583626</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100929.3500872909</v>
+        <v>9149037.139035491</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111346.0123280028</v>
+        <v>10006947.30148736</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121762.6745687147</v>
+        <v>10864857.46393923</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132179.3368094265</v>
+        <v>11722767.6263911</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142606.1938946222</v>
+        <v>12580154.8381376</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153033.0509798202</v>
+        <v>13437542.04988383</v>
       </c>
     </row>
   </sheetData>
